--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/301 珑克酒店.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/301 珑克酒店.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="928" firstSheet="5" activeTab="15"/>
+    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="928" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="maze301_exit" sheetId="30" r:id="rId1"/>
     <sheet name="maze301_part0" sheetId="56" r:id="rId2"/>
     <sheet name="maze301_part1" sheetId="29" r:id="rId3"/>
     <sheet name="maze301_part2" sheetId="27" r:id="rId4"/>
-    <sheet name="maze301_part4" sheetId="31" r:id="rId5"/>
-    <sheet name="maze301_part5" sheetId="28" r:id="rId6"/>
-    <sheet name="maze301_part20" sheetId="32" r:id="rId7"/>
-    <sheet name="maze301_boss21" sheetId="42" r:id="rId8"/>
-    <sheet name="maze301_boss23" sheetId="51" r:id="rId9"/>
-    <sheet name="maze301_boss25" sheetId="50" r:id="rId10"/>
-    <sheet name="maze301_boss26" sheetId="49" r:id="rId11"/>
-    <sheet name="maze301_part27" sheetId="48" r:id="rId12"/>
-    <sheet name="maze301_part28" sheetId="47" r:id="rId13"/>
-    <sheet name="maze301_npc71" sheetId="43" r:id="rId14"/>
-    <sheet name="maze301_npc72" sheetId="54" r:id="rId15"/>
-    <sheet name="maze301_npc73" sheetId="55" r:id="rId16"/>
+    <sheet name="maze301_part3" sheetId="57" r:id="rId5"/>
+    <sheet name="maze301_part4" sheetId="31" r:id="rId6"/>
+    <sheet name="maze301_part5" sheetId="28" r:id="rId7"/>
+    <sheet name="maze301_part20" sheetId="32" r:id="rId8"/>
+    <sheet name="maze301_boss21" sheetId="42" r:id="rId9"/>
+    <sheet name="maze301_boss23" sheetId="51" r:id="rId10"/>
+    <sheet name="maze301_boss25" sheetId="50" r:id="rId11"/>
+    <sheet name="maze301_boss26" sheetId="49" r:id="rId12"/>
+    <sheet name="maze301_part27" sheetId="48" r:id="rId13"/>
+    <sheet name="maze301_part28" sheetId="47" r:id="rId14"/>
+    <sheet name="maze301_npc71" sheetId="43" r:id="rId15"/>
+    <sheet name="maze301_npc72" sheetId="54" r:id="rId16"/>
+    <sheet name="maze301_npc73" sheetId="55" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -428,6 +429,63 @@
 </file>
 
 <file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+潜规则，组必须等到文本结束才算开始</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>liuweiguang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+空项和0,都视为0
+组号，写G或者g，都算一组的开始
+G:aaa 带有名字的组号
+例如填了个1.5，指的是从本组组号开始，到1.5秒后执行动作</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -941,7 +999,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="120">
   <si>
     <t>说明</t>
   </si>
@@ -1105,7 +1163,7 @@
     <t>切换场景</t>
   </si>
   <si>
-    <t>apartment3</t>
+    <t>long_wineshop</t>
   </si>
   <si>
     <t>跳转-标签</t>
@@ -1126,58 +1184,135 @@
     <t>duheng</t>
   </si>
   <si>
-    <t>辛苦大家了。</t>
+    <t>{#杜衡紧张动作}辛苦大家了。</t>
   </si>
   <si>
     <t>kaiselin02</t>
   </si>
   <si>
-    <t>这种话竟然能从杜博士的嘴里听到，真是不可思议呢~</t>
-  </si>
-  <si>
-    <t>说什么呢，我可是给你们准备了豪华酒店度假套餐哦~</t>
+    <r>
+      <t>{#杜衡紧张动作恢复}这种话竟然能从杜博士的嘴里听到，\n真是不可思议呢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>~</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{#杜衡惊讶动作}说什么呢，我可是给你们准备了\n豪华酒店度假套餐哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>~</t>
+    </r>
   </si>
   <si>
     <t>niefei</t>
   </si>
   <si>
-    <t>豪华酒店！度假！太幸福了喵！</t>
-  </si>
-  <si>
-    <t>地点就在珑克酒店，快抓紧时间过去吧。晚了可是要错过豪华晚餐了。</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豪华酒店！度假！太幸福了喵！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杜衡惊讶动作恢复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{#杜衡送客动作}地点就在珑克酒店，快抓紧时间过去吧。晚了可是要错过豪华晚餐了。</t>
+  </si>
+  <si>
+    <t>移除角色</t>
   </si>
   <si>
     <t>tuling</t>
   </si>
   <si>
-    <t>为什么总有种不好的预感……</t>
-  </si>
-  <si>
-    <t>这就是安江市的豪华酒店吗……怎么感觉不太对劲，还是我世面见少了？</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{#涂凌思考动作}{#涂凌思考表情}为什么总有种不好的预感</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>……</t>
+    </r>
+  </si>
+  <si>
+    <t>{#聂飞思考动作}{#聂飞思考表情}这里就是安江市的豪华酒店吗……怎么感觉不太对劲，还是我世面见少了？</t>
   </si>
   <si>
     <t>pos=左</t>
   </si>
   <si>
-    <t>刚才我就想提醒你了！蠢猫！这里的异质波动异常强烈，跟之前的巢一样！</t>
-  </si>
-  <si>
-    <t>或者说，这里就是另一个巢。</t>
-  </si>
-  <si>
-    <t>什么？！杜博士用这种方法把我们骗过来吗……</t>
-  </si>
-  <si>
-    <t>呜……亏我还真的以为有度假。</t>
-  </si>
-  <si>
-    <t>移除角色</t>
-  </si>
-  <si>
-    <t>我们可以选择原路返回，但是杜博士叫我们来一定有她的理由吧，说不定里面真的有豪华晚餐呢？</t>
-  </si>
-  <si>
-    <t>唉，周易，你来决定吧。</t>
+    <t>{#凯瑟琳2严肃动作}{#凯瑟琳2严肃表情}刚才我就想提醒你了！蠢猫！这里的异质波动异常强烈，跟之前的巢一样！</t>
+  </si>
+  <si>
+    <t>{#聂飞严肃动作恢复}{#聂飞待机表情}{#凯瑟琳2待机表情}或者说，这里就是另一个巢。</t>
+  </si>
+  <si>
+    <t>{#凯瑟琳2严肃动作恢复}什么？！杜博士用这种方法把我们骗过来吗……</t>
+  </si>
+  <si>
+    <t>{#聂飞馋动作}呜……亏我还真的以为有度假。</t>
+  </si>
+  <si>
+    <t>{#涂凌思考动作}我们可以原路返回，但是杜博士叫我们来 一定有她的理由吧，</t>
+  </si>
+  <si>
+    <t>{#涂凌思考动作恢复}说不定里面真的有豪华晚餐呢？</t>
+  </si>
+  <si>
+    <t>{#聂飞严肃动作}唉，你来决定吧。</t>
   </si>
   <si>
     <t>是杜博士，她来电话了！</t>
@@ -1189,60 +1324,119 @@
     <t>type=4</t>
   </si>
   <si>
-    <t>杜博士，你为什么要欺骗本大爷的感情啊！</t>
+    <t>{#杜衡紧张动作}杜博士，你为什么要欺骗本大爷的感情啊！</t>
+  </si>
+  <si>
+    <t>type=0</t>
   </si>
   <si>
     <t>不管我用哪种理由让你们来到这里，最后你们都会来这，不是吗？</t>
   </si>
   <si>
-    <t>就像是这里的迷宫一样，不管选哪条路走，最后你们都会到达终点。</t>
-  </si>
-  <si>
-    <t>好了不开玩笑了。这次的目的依然是清理巢主。自从在上一个巢里</t>
-  </si>
-  <si>
-    <t>发现人为痕迹后，我们不得不怀疑这些新的巢是不是和人为组织有关。</t>
-  </si>
-  <si>
-    <t>希望在这次的调查中可以有新的进展。</t>
+    <t>{#杜衡紧张动作恢复}就像是这里的迷宫一样，不管选哪条路走，最后你们都会到达终点。</t>
+  </si>
+  <si>
+    <t>{#杜衡惊讶动作}好了不开玩笑了。这次的目的依然是清理巢主。自从在上一个巢里</t>
+  </si>
+  <si>
+    <t>发现人为痕迹后，我们不得不怀疑这些新的巢是不是有人故意为之。{#杜衡惊讶动作恢复}</t>
+  </si>
+  <si>
+    <t>{#杜衡看文件动作}希望在这次的调查中可以有新的进展。</t>
   </si>
   <si>
     <t>这次给你们指明方向吧~巢的出口就在&lt;z=yellow&gt;正东&lt;/z&gt;方向，</t>
   </si>
   <si>
-    <t>赶快解决掉就可以快点享受假期哦。</t>
-  </si>
-  <si>
-    <t>又是一个岔路口……本大爷累了，本大爷想休假……</t>
+    <t>{#杜衡看文件动作恢复}赶快解决掉就可以快点享受假期哦。</t>
+  </si>
+  <si>
+    <t>喂！是谁找的这条路呀，这里根本啥都没有啊，</t>
+  </si>
+  <si>
+    <t>我们还是听杜博士的回去朝东走吧！</t>
+  </si>
+  <si>
+    <t>{#聂飞馋动作}又是一个岔路口……本大爷累了 本大爷想休假……</t>
   </si>
   <si>
     <t>pos=右</t>
   </si>
   <si>
-    <t>如果我们想去出口的话，应该往东南方向前进。</t>
-  </si>
-  <si>
-    <t>杜博士说的果然没错，巢的路线很清晰，我们选择的路线是正确的。只不过……</t>
-  </si>
-  <si>
-    <t>前面的异质波动太强了，我有点担心。</t>
-  </si>
-  <si>
-    <t>这样我们就能去下一层了吧。可恶，我的休假什么时候才会来啊。</t>
-  </si>
-  <si>
-    <t>换种方式思考，能去下一层说明我们离休假更近了呢。</t>
+    <t>{#涂凌思考动作}如果我们想去出口的话，应该往东南方向前进。</t>
+  </si>
+  <si>
+    <t>{#涂凌紧张动作}杜博士说的果然没错，巢的路线很清晰，我们选择的路线是正确的。只不过……</t>
+  </si>
+  <si>
+    <t>{#涂凌思考动作}前面的异质波动太强了，我有点担心。</t>
+  </si>
+  <si>
+    <t>{#聂飞军体拳动作}这样我们就能去下一层了吧。可恶，我的休假什么时候才会来啊。</t>
+  </si>
+  <si>
+    <t>{#凯瑟琳2思考动作}换种方式思考，能去下一层是不是说明我们离休假更近了呢。</t>
+  </si>
+  <si>
+    <t>@char_1</t>
+  </si>
+  <si>
+    <r>
+      <t>有人生来就在终点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有人只会让悲剧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一次次重演</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>……</t>
+    </r>
+  </si>
+  <si>
+    <t>name=醉酒的人</t>
   </si>
   <si>
     <t>wo</t>
   </si>
   <si>
-    <t>有人生来就在终点……有人只会让悲剧一次次重演……</t>
-  </si>
-  <si>
-    <t>name=醉酒的人</t>
-  </si>
-  <si>
     <t>你们，打扰到我泡温泉了！</t>
   </si>
   <si>
@@ -1255,7 +1449,7 @@
     <t>name=懒洋洋的人</t>
   </si>
   <si>
-    <t>说得太对了！你快让开，本大爷也要休假啊！</t>
+    <t>{#聂飞愤怒动作}说得太对了！你快让开，本大爷也要休假啊！</t>
   </si>
   <si>
     <t>天大地大，休假最大，休假中勿扰啊！</t>
@@ -1264,7 +1458,27 @@
     <t>战斗结束</t>
   </si>
   <si>
-    <t>好不容易才有的酒店假期，就被你们搞黄了！快走吧！</t>
+    <r>
+      <t>好不容易才有的酒店假期，就被你们搞黄了！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快走吧！</t>
+    </r>
   </si>
   <si>
     <t>听说在这里，泡温泉也可以增加心智导体……正想去试一下呢，就被你们拦住了！</t>
@@ -1285,19 +1499,39 @@
     <t>name=蛮横的守卫</t>
   </si>
   <si>
-    <t>迷路的勇者哟，你们也是来寻找传说中的巨龙宝藏的吗？</t>
-  </si>
-  <si>
-    <t>name=爱做梦的人</t>
-  </si>
-  <si>
-    <t>巨龙宝藏？你在说什么？这里不是巢变的豪华酒店吗？</t>
-  </si>
-  <si>
-    <t>哎呀呀呀，守口如瓶的我又说漏嘴了吗，可恶可恶。</t>
-  </si>
-  <si>
-    <t>说详细点，什么宝藏？</t>
+    <r>
+      <t>迷路的勇者哟，你们也是来寻找传说中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>巨龙宝藏的吗？</t>
+    </r>
+  </si>
+  <si>
+    <t>name=来探险的人</t>
+  </si>
+  <si>
+    <t>{#聂飞得意动作}传说中的巨龙宝藏？你在说什么？这里不是巢变的豪华酒店吗？</t>
+  </si>
+  <si>
+    <t>哎呀呀，守口如瓶的我又说漏嘴了吗，可恶可恶。</t>
+  </si>
+  <si>
+    <t>{#凯瑟琳2严肃动作}{#凯瑟琳2严肃表情}说详细点，什么宝藏？</t>
   </si>
   <si>
     <t>我可不能说出来那是传说沉睡之巨龙埋藏在这间酒店里的传奇宝藏啊！</t>
@@ -1306,28 +1540,83 @@
     <t>只有不争不抢不闻不问，以一颗平常心来寻宝才能找到的巨龙宝藏。</t>
   </si>
   <si>
-    <t>还有这么神奇的事吗？唉，又想到我的休假了。</t>
-  </si>
-  <si>
-    <t>鄙人又说漏嘴了，可恶！既然如此……诸位勇者可以帮我找到我的同伴吗？我们三人本来是一起来寻宝的。</t>
+    <t>{#聂飞思考动作}还有这么神奇的事吗？唉，又想到我的休假了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鄙人又说漏嘴了，可恶！既然如此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诸位勇者可以帮我找到我的同伴吗？</t>
+    </r>
+  </si>
+  <si>
+    <t>{#聂飞思考动作恢复}我们三人本来是一起来寻宝的。</t>
   </si>
   <si>
     <t>可是他们却找到一半去泡温泉了！一点紧张感都没有，可恶！</t>
   </si>
   <si>
-    <t>按你刚刚的说法，你这样子反而会找不到吧……</t>
-  </si>
-  <si>
-    <t>所以，鄙人现在只能尽量不去想宝藏的事，只能安静地呆在此地不要走动。拜托你们去帮鄙人寻得同伴吧！</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{#聂飞馋动作}按你刚刚的说法，你这样子反而会找不到吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>……</t>
+    </r>
+  </si>
+  <si>
+    <t>所以，鄙人现在只能尽量不去想宝藏的事，只能安静地呆在此地不要走动。</t>
+  </si>
+  <si>
+    <t>拜托你们去帮鄙人寻得同伴吧！</t>
+  </si>
+  <si>
+    <t>{#凯瑟琳2思考动作}看起来他的另外两个同伴似乎会知道更多关于宝藏的事呢。那我们就帮帮他吧。</t>
   </si>
   <si>
     <t>找到2</t>
   </si>
   <si>
-    <t>啊对对对，我是和同伴来找宝藏的。那种事情，再说啦，让我再休息一会，再一小会儿就好了。不要打扰我。</t>
-  </si>
-  <si>
-    <t>name=爱偷懒的人</t>
+    <t>啊对对对，我是和同伴来找宝藏的。那种事情，再说啦，让我再休息一会，</t>
+  </si>
+  <si>
+    <t>再一小会儿就好了。不要打扰我。</t>
+  </si>
+  <si>
+    <t>{#凯瑟琳2思考动作}从这个人嘴里应该很难再问出什么了，我们去找最后一个人吧。</t>
   </si>
   <si>
     <t>找到3</t>
@@ -1336,13 +1625,42 @@
     <t>谁要理他们啊！有宝藏的话当然是自己独吞啊。我已经得到了最可靠的情报！</t>
   </si>
   <si>
-    <t>name=自私的人</t>
-  </si>
-  <si>
     <t>巨龙宝藏就在下一层，而我一定会是三个人里最先去到下一层的，</t>
   </si>
   <si>
     <t>啊哈哈哈哈哈哈！至于他们的死活我才不管呢！</t>
+  </si>
+  <si>
+    <t>{#聂飞愤怒}这样也能被称之为同伴吗！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{#凯瑟琳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>严肃动作}我们已经取得了最关键的情报，既然如此，就朝着下一层前进吧。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1395,9 +1713,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1407,9 +1725,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9.75"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2171,10 +2489,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2580,8 +2898,2526 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.9083333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.7333333333333" customWidth="1"/>
+    <col min="6" max="6" width="59.0166666666667" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6">
+        <f ca="1">INDEX($D$5:$D$787,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f>ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f>ROW()-6</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:6">
+      <c r="A8">
+        <f t="shared" ref="A8:A19" si="0">ROW()-6</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="24.75" spans="1:6">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="38"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="38"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet25"/>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="67.375" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6">
+        <f ca="1">INDEX($D$5:$D$782,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet24"/>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="80.5" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6">
+        <f ca="1">INDEX($D$5:$D$785,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f t="shared" ref="A6:A13" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" ref="A13:A25" si="1">ROW()-6</f>
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet23"/>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="74.375" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6">
+        <f ca="1">INDEX($D$5:$D$782,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet22"/>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="67" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6">
+        <f ca="1">INDEX($D$5:$D$782,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet21"/>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="60.25" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6">
+        <f ca="1">INDEX($D$5:$D$793,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f t="shared" ref="A6:A22" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="84" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6">
+        <f ca="1">INDEX($D$5:$D$786,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f t="shared" ref="A6:A15" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:6">
+      <c r="A16">
+        <f t="shared" ref="A16:A24" si="1">ROW()-6</f>
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:8">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:6">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:6">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:8">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:8">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:8">
+      <c r="A23">
+        <f t="shared" ref="A23:A27" si="2">ROW()-6</f>
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:6">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:6">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:8">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <f t="shared" ref="A28:A33" si="3">ROW()-6</f>
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:6">
+      <c r="A31">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:6">
+      <c r="A32">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:5">
+      <c r="A33">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <f t="shared" ref="A34:A38" si="4">ROW()-6</f>
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:8">
+      <c r="A38">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:6">
+      <c r="A39">
+        <f>ROW()-6</f>
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:6">
+      <c r="A40">
+        <f>ROW()-6</f>
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <f>ROW()-6</f>
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <f>ROW()-6</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <f>ROW()-6</f>
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <f t="shared" ref="A44:A53" si="5">ROW()-6</f>
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" t="s">
+        <v>117</v>
+      </c>
+      <c r="H48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:6">
+      <c r="A49">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:6">
+      <c r="A50">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <f t="shared" ref="A53:A59" si="6">ROW()-6</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2624,7 +5460,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$787,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$773,CELL("row")-4)</f>
         <v>0</v>
       </c>
       <c r="E2" s="7" t="e">
@@ -2722,18 +5558,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" customFormat="1" spans="1:2">
       <c r="A6">
-        <f>ROW()-6</f>
+        <f t="shared" ref="A6:A57" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" customFormat="1" spans="1:6">
       <c r="A7">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D7" t="s">
@@ -2746,112 +5582,708 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:6">
+    <row r="8" customFormat="1" spans="1:6">
       <c r="A8">
-        <f t="shared" ref="A8:A19" si="0">ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" ht="24.75" spans="1:8">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:8">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:8">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:8">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:8">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:8">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:6">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:6">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:6">
+      <c r="A30">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="9" ht="24.75" spans="1:6">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1" t="s">
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A31">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="39" t="s">
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A32">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="19" t="s">
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A33">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="35" t="s">
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" customFormat="1" spans="1:2">
+      <c r="A34">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="38"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="37" t="s">
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:6">
+      <c r="A35">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:6">
+      <c r="A36">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F12" s="38"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="37" t="s">
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="24" spans="1:8">
+      <c r="A37">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38" t="s">
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:8">
+      <c r="A38">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:6">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:6">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:6">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:1">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:6">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:6">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" ht="24" spans="1:8">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:8">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:8">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" t="s">
+        <v>117</v>
+      </c>
+      <c r="H48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:6">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:6">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:6">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" ht="24.75" spans="1:6">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:6">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:1">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:1">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:1">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:2">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2862,2353 +6294,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet24"/>
-  <dimension ref="A1:H23"/>
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="80.5" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$783,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <f t="shared" ref="A6:A23" si="0">ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet23"/>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="74.375" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$782,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet22"/>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="67" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$782,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="60.25" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$793,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <f t="shared" ref="A6:A22" si="0">ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:H44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="84" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$773,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <f t="shared" ref="A6:A26" si="0">ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:6">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:6">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:6">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:5">
-      <c r="A27">
-        <f t="shared" ref="A27:A36" si="1">ROW()-6</f>
-        <v>21</v>
-      </c>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <f t="shared" ref="A37:A46" si="2">ROW()-6</f>
-        <v>31</v>
-      </c>
-      <c r="D37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="D38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>108</v>
-      </c>
-      <c r="H38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="D39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="D40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
-        <f>ROW()-6</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <f>ROW()-6</f>
-        <v>38</v>
-      </c>
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:H44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="36.75" customWidth="1"/>
-    <col min="6" max="6" width="33.75" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$773,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:2">
-      <c r="A6">
-        <f t="shared" ref="A6:A44" si="0">ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:6">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:1">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" ht="24" spans="1:8">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:1">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:8">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:8">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:1">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:8">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:8">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="14.25" spans="1:1">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25"/>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:2">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:6">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:1">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" ht="36" spans="1:8">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:6">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:1">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:2">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:6">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:1">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" ht="24" spans="1:8">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>108</v>
-      </c>
-      <c r="H38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="D39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:6">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="D40" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40"/>
-      <c r="F40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:1">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:1">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:1">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:2">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:H44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5351,7 +6443,7 @@
     </row>
     <row r="6" customFormat="1" spans="1:2">
       <c r="A6">
-        <f t="shared" ref="A6:A44" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A57" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" t="s">
@@ -5373,10 +6465,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:1">
+    <row r="8" customFormat="1" spans="1:6">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5388,13 +6489,13 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14.25" spans="1:6">
@@ -5409,7 +6510,7 @@
         <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14.25" spans="1:6">
@@ -5424,13 +6525,19 @@
         <v>41</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="14.25" spans="1:5">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:8">
@@ -5442,13 +6549,13 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="14.25" spans="1:6">
@@ -5463,7 +6570,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="14.25" spans="1:6">
@@ -5478,28 +6585,23 @@
         <v>38</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="14.25" spans="1:6">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:8">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5508,19 +6610,31 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
         <v>96</v>
       </c>
-      <c r="H17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:1">
+    </row>
+    <row r="18" customFormat="1" spans="1:8">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="14.25" spans="1:6">
@@ -5529,16 +6643,16 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:8">
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="14.25" spans="1:6">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5547,13 +6661,10 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:8">
@@ -5565,22 +6676,34 @@
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="14.25" spans="1:1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="14.25" spans="1:8">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:6">
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="14.25" spans="1:8">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5589,10 +6712,13 @@
         <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="14.25" spans="1:6">
@@ -5604,10 +6730,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="14.25" spans="1:6">
@@ -5616,36 +6742,59 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25"/>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" customFormat="1" ht="14.25" spans="1:8">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" customFormat="1" ht="14.25" spans="1:5">
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:8">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:2">
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:6">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B28" t="s">
-        <v>102</v>
-      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" customFormat="1" spans="1:6">
       <c r="A29">
@@ -5653,57 +6802,57 @@
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:6">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="31" ht="24" spans="1:8">
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="14.25" spans="1:6">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" ht="14.25" spans="1:6">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:1">
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" customFormat="1" ht="14.25" spans="1:5">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" customFormat="1" spans="1:2">
       <c r="A34">
@@ -5711,7 +6860,7 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:6">
@@ -5729,13 +6878,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" customFormat="1" spans="1:1">
+    <row r="36" customFormat="1" spans="1:6">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:8">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5744,16 +6902,16 @@
         <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:8">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5762,31 +6920,28 @@
         <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>108</v>
+        <v>77</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="H38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:6">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H39" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:6">
@@ -5795,17 +6950,26 @@
         <v>34</v>
       </c>
       <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:6">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
         <v>31</v>
       </c>
-      <c r="E40"/>
-      <c r="F40" t="s">
+      <c r="E41"/>
+      <c r="F41" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:1">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>35</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:1">
@@ -5814,18 +6978,195 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="1:1">
+    <row r="43" customFormat="1" spans="1:2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:2">
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:6">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:6">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:8">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:8">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:8">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" t="s">
+        <v>117</v>
+      </c>
+      <c r="H48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:6">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:6">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:6">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:6">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:6">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:1">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:1">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:1">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:2">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5839,19 +7180,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="9.775" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="50.625" customWidth="1"/>
+    <col min="6" max="6" width="70.9666666666667" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
@@ -5885,7 +7226,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$787,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$789,CELL("row")-4)</f>
         <v>0</v>
       </c>
       <c r="E2" s="7" t="e">
@@ -6007,13 +7348,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:6">
+    <row r="8" spans="1:6">
       <c r="A8">
-        <f t="shared" ref="A8:A18" si="0">ROW()-6</f>
+        <f t="shared" ref="A8:A20" si="0">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
@@ -6024,7 +7367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:6">
+    <row r="9" spans="1:6">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6041,7 +7384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:6">
+    <row r="10" spans="1:6">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6058,7 +7401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:6">
+    <row r="11" spans="1:6">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6075,7 +7418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:6">
+    <row r="12" spans="1:6">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6113,48 +7456,74 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="E14" s="37"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:6">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="37" t="s">
+      <c r="F15" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:6">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38" t="s">
+      <c r="E17" s="37"/>
+      <c r="F17" s="38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6168,19 +7537,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="36.75" customWidth="1"/>
-    <col min="6" max="6" width="33.75" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="6" width="90.5" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
@@ -6214,7 +7584,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$792,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$793,CELL("row")-4)</f>
         <v>0</v>
       </c>
       <c r="E2" s="7" t="e">
@@ -6314,7 +7684,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="28">
-        <f t="shared" ref="A6:A21" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A22" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -6373,7 +7743,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:6">
@@ -6387,10 +7757,10 @@
         <v>33</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:6">
@@ -6404,10 +7774,10 @@
         <v>23</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:6">
@@ -6421,10 +7791,10 @@
         <v>23</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:6">
@@ -6441,7 +7811,7 @@
         <v>41</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:6">
@@ -6458,7 +7828,7 @@
         <v>41</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:6">
@@ -6469,7 +7839,7 @@
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="24"/>
@@ -6485,13 +7855,13 @@
         <v>33</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:6">
+    <row r="17" spans="1:6">
       <c r="A17" s="28">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6502,7 +7872,7 @@
         <v>23</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>53</v>
@@ -6516,13 +7886,13 @@
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:6">
@@ -6533,16 +7903,16 @@
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:5">
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="28">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6550,22 +7920,39 @@
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="32"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:5">
+      <c r="A21" s="28">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6580,16 +7967,16 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="68.875" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="78.625" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
@@ -6766,7 +8153,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>35</v>
@@ -6785,10 +8172,10 @@
         <v>23</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -6801,7 +8188,7 @@
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -6841,11 +8228,11 @@
         <v>36</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:8">
@@ -6862,11 +8249,11 @@
         <v>41</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:8">
@@ -6883,11 +8270,11 @@
         <v>36</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:8">
@@ -6904,11 +8291,11 @@
         <v>36</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:8">
@@ -6925,14 +8312,14 @@
         <v>36</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="28">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6946,11 +8333,11 @@
         <v>36</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:8">
@@ -6967,11 +8354,11 @@
         <v>36</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:8">
@@ -6988,11 +8375,11 @@
         <v>36</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:8">
@@ -7009,7 +8396,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
@@ -7022,7 +8409,7 @@
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="24"/>
@@ -7053,20 +8440,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H17"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="36.75" customWidth="1"/>
-    <col min="6" max="6" width="33.75" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="78.625" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
@@ -7100,7 +8487,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$784,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$783,CELL("row")-4)</f>
         <v>0</v>
       </c>
       <c r="E2" s="7" t="e">
@@ -7198,149 +8585,126 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="A6" s="28">
-        <f t="shared" ref="A6:A22" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A12" si="0">ROW()-6</f>
         <v>0</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="D7" s="28" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="28">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" ht="27" spans="1:6">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="D9" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="28" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:8">
       <c r="A10" s="28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="D10" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="28" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:8">
+      <c r="A11" s="28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" ht="27" spans="1:6">
-      <c r="A11" s="28">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="D11" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="28">
+      <c r="E11" s="32"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="D12" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="28">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B13" s="28" t="s">
+      <c r="B12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7351,20 +8715,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H13"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="36.75" customWidth="1"/>
-    <col min="6" max="6" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="79.25" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
@@ -7398,7 +8762,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$783,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$784,CELL("row")-4)</f>
         <v>0</v>
       </c>
       <c r="E2" s="7" t="e">
@@ -7498,7 +8862,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="28">
-        <f t="shared" ref="A6:A12" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A22" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -7534,13 +8898,13 @@
         <v>33</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" ht="40.5" spans="1:6">
+    <row r="9" spans="1:6">
       <c r="A9" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7550,10 +8914,10 @@
         <v>23</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7563,13 +8927,13 @@
       </c>
       <c r="B10" s="28"/>
       <c r="D10" s="28" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>70</v>
+        <v>45</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7579,29 +8943,66 @@
       </c>
       <c r="B11" s="28"/>
       <c r="D11" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="28">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="28"/>
+      <c r="D12" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="28">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7612,11 +9013,272 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:H21"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="89" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6">
+        <f ca="1">INDEX($D$5:$D$783,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="8" t="e">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="28">
+        <f t="shared" ref="A6:A12" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="D7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="D8" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:6">
+      <c r="A9" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="D9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:6">
+      <c r="A10" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="D10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="D11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -7659,7 +9321,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$785,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$786,CELL("row")-4)</f>
         <v>0</v>
       </c>
       <c r="E2" s="7" t="e">
@@ -7759,7 +9421,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="24">
-        <f t="shared" ref="A6:A22" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A15" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -7802,7 +9464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" ht="27" spans="1:6">
       <c r="A9" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7815,7 +9477,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7825,14 +9487,10 @@
       </c>
       <c r="B10" s="24"/>
       <c r="D10" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>47</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="24">
@@ -7841,26 +9499,30 @@
       </c>
       <c r="B11" s="24"/>
       <c r="D11" s="24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:6">
       <c r="A12" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B12" s="24"/>
       <c r="D12" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="24">
@@ -7868,8 +9530,9 @@
         <v>7</v>
       </c>
       <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="D13" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
     </row>
@@ -7878,17 +9541,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
@@ -7942,228 +9608,13 @@
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="D9:H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="29.875" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="7" max="7" width="21.125" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$783,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="7" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="8" t="e">
-        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" ht="31" customHeight="1" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <f t="shared" ref="A6:A12" si="0">ROW()-6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" spans="1:8">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
+    <row r="22" spans="1:6">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8174,21 +9625,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet25"/>
-  <dimension ref="A1:H11"/>
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="36.75" customWidth="1"/>
-    <col min="6" max="6" width="33.75" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="71.125" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8221,7 +9672,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="6">
-        <f ca="1">INDEX($D$5:$D$782,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$783,CELL("row")-4)</f>
         <v>0</v>
       </c>
       <c r="E2" s="7" t="e">
@@ -8321,7 +9772,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A12" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" t="s">
@@ -8343,10 +9794,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:5">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -8358,13 +9815,13 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -8373,12 +9830,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:1">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
         <v>32</v>
       </c>
     </row>
